--- a/data_preprocessing.xlsx
+++ b/data_preprocessing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jtgra\Documents\A_Fall_2022_Classes\EEE_577\Project\EEE577_Group8_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA323A5A-B7D4-4035-B090-468D7AA49817}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7842D43A-3114-42B0-878A-2C3794FA66BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="3" activeTab="6" xr2:uid="{432B0298-B22F-4894-A746-C472485198F7}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="1" xr2:uid="{432B0298-B22F-4894-A746-C472485198F7}"/>
   </bookViews>
   <sheets>
     <sheet name="bus_data" sheetId="1" r:id="rId1"/>
@@ -813,9 +813,6 @@
     <t>max output</t>
   </si>
   <si>
-    <t>For AMPL - max output trippled</t>
-  </si>
-  <si>
     <t>Bus</t>
   </si>
   <si>
@@ -1783,6 +1780,9 @@
   </si>
   <si>
     <t>Two Line Limit</t>
+  </si>
+  <si>
+    <t>For AMPL</t>
   </si>
 </sst>
 </file>
@@ -2002,6 +2002,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2059,9 +2062,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -2404,22 +2404,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="43" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="43" t="s">
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="46" t="s">
         <v>86</v>
       </c>
-      <c r="L1" s="42"/>
+      <c r="L1" s="45"/>
     </row>
     <row r="2" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
@@ -2458,25 +2458,25 @@
       <c r="L2" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="M2" s="44" t="s">
+      <c r="M2" s="47" t="s">
+        <v>250</v>
+      </c>
+      <c r="N2" s="48"/>
+      <c r="O2" s="48"/>
+      <c r="P2" s="15" t="s">
         <v>251</v>
       </c>
-      <c r="N2" s="45"/>
-      <c r="O2" s="45"/>
-      <c r="P2" s="15" t="s">
+      <c r="Q2" s="15" t="s">
         <v>252</v>
       </c>
-      <c r="Q2" s="15" t="s">
+      <c r="R2" s="15" t="s">
         <v>253</v>
       </c>
-      <c r="R2" s="15" t="s">
+      <c r="S2" s="15" t="s">
         <v>254</v>
       </c>
-      <c r="S2" s="15" t="s">
+      <c r="T2" s="15" t="s">
         <v>255</v>
-      </c>
-      <c r="T2" s="15" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.35">
@@ -5749,8 +5749,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BEED614-5FA7-4382-88CC-D05432B978DE}">
   <dimension ref="A1:W98"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1:O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5773,25 +5773,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="43" t="s">
         <v>243</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="42"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="45"/>
       <c r="I1" s="16"/>
       <c r="J1" s="16"/>
       <c r="K1" s="16"/>
-      <c r="L1" s="46" t="s">
-        <v>250</v>
-      </c>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="46"/>
+      <c r="L1" s="49" t="s">
+        <v>573</v>
+      </c>
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
+      <c r="O1" s="49"/>
     </row>
     <row r="2" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
@@ -5818,17 +5818,17 @@
       <c r="H2" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="I2" s="59" t="s">
+      <c r="I2" s="40" t="s">
         <v>245</v>
       </c>
-      <c r="J2" s="59" t="s">
+      <c r="J2" s="40" t="s">
         <v>246</v>
       </c>
-      <c r="K2" s="60" t="s">
+      <c r="K2" s="41" t="s">
         <v>247</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="M2" s="4" t="s">
         <v>244</v>
@@ -5839,18 +5839,18 @@
       <c r="O2" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="P2" s="47" t="s">
-        <v>258</v>
-      </c>
-      <c r="Q2" s="47"/>
-      <c r="R2" s="47"/>
-      <c r="S2" s="47"/>
-      <c r="T2" s="47" t="s">
-        <v>258</v>
-      </c>
-      <c r="U2" s="47"/>
-      <c r="V2" s="47"/>
-      <c r="W2" s="47"/>
+      <c r="P2" s="50" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q2" s="50"/>
+      <c r="R2" s="50"/>
+      <c r="S2" s="50"/>
+      <c r="T2" s="50" t="s">
+        <v>257</v>
+      </c>
+      <c r="U2" s="50"/>
+      <c r="V2" s="50"/>
+      <c r="W2" s="50"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
@@ -6491,7 +6491,7 @@
       <c r="J11" s="5">
         <v>400</v>
       </c>
-      <c r="K11" s="61">
+      <c r="K11" s="42">
         <v>5.46</v>
       </c>
       <c r="L11" s="10" t="str">
@@ -12320,7 +12320,7 @@
       <c r="G98" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="H98" s="61">
+      <c r="H98" s="42">
         <v>1.05</v>
       </c>
       <c r="L98" s="12" t="str">
@@ -12411,29 +12411,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="51" t="s">
         <v>190</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
-      <c r="N1" s="48"/>
-      <c r="O1" s="49" t="s">
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="51"/>
+      <c r="O1" s="52" t="s">
         <v>195</v>
       </c>
-      <c r="P1" s="50"/>
-      <c r="Q1" s="50"/>
-      <c r="R1" s="50"/>
-      <c r="S1" s="51"/>
+      <c r="P1" s="53"/>
+      <c r="Q1" s="53"/>
+      <c r="R1" s="53"/>
+      <c r="S1" s="54"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A2" s="17" t="s">
@@ -12446,7 +12446,7 @@
         <v>183</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E2" s="17" t="s">
         <v>184</v>
@@ -12455,7 +12455,7 @@
         <v>185</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H2" s="17" t="s">
         <v>186</v>
@@ -12467,13 +12467,13 @@
         <v>188</v>
       </c>
       <c r="K2" s="17" t="s">
+        <v>260</v>
+      </c>
+      <c r="L2" s="17" t="s">
         <v>261</v>
       </c>
-      <c r="L2" s="17" t="s">
+      <c r="M2" s="17" t="s">
         <v>262</v>
-      </c>
-      <c r="M2" s="17" t="s">
-        <v>263</v>
       </c>
       <c r="N2" s="17" t="s">
         <v>189</v>
@@ -12556,8 +12556,8 @@
         <f>C3</f>
         <v>111</v>
       </c>
-      <c r="T3" s="48" t="s">
-        <v>264</v>
+      <c r="T3" s="51" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.35">
@@ -12622,7 +12622,7 @@
         <f t="shared" ref="S4:S67" si="3">C4</f>
         <v>112</v>
       </c>
-      <c r="T4" s="48"/>
+      <c r="T4" s="51"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A5" s="17" t="s">
@@ -12686,7 +12686,7 @@
         <f t="shared" si="3"/>
         <v>111</v>
       </c>
-      <c r="T5" s="48"/>
+      <c r="T5" s="51"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A6" s="17" t="s">
@@ -12750,7 +12750,7 @@
         <f t="shared" si="3"/>
         <v>112</v>
       </c>
-      <c r="T6" s="48"/>
+      <c r="T6" s="51"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A7" s="17" t="s">
@@ -12814,7 +12814,7 @@
         <f t="shared" si="3"/>
         <v>124</v>
       </c>
-      <c r="T7" s="48"/>
+      <c r="T7" s="51"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A8" s="17" t="s">
@@ -12878,7 +12878,7 @@
         <f t="shared" si="3"/>
         <v>211</v>
       </c>
-      <c r="T8" s="48"/>
+      <c r="T8" s="51"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A9" s="17" t="s">
@@ -12942,7 +12942,7 @@
         <f t="shared" si="3"/>
         <v>212</v>
       </c>
-      <c r="T9" s="48"/>
+      <c r="T9" s="51"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A10" s="17" t="s">
@@ -13006,7 +13006,7 @@
         <f t="shared" si="3"/>
         <v>211</v>
       </c>
-      <c r="T10" s="48"/>
+      <c r="T10" s="51"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A11" s="17" t="s">
@@ -13070,7 +13070,7 @@
         <f t="shared" si="3"/>
         <v>212</v>
       </c>
-      <c r="T11" s="48"/>
+      <c r="T11" s="51"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A12" s="17" t="s">
@@ -13134,7 +13134,7 @@
         <f t="shared" si="3"/>
         <v>224</v>
       </c>
-      <c r="T12" s="48"/>
+      <c r="T12" s="51"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A13" s="17" t="s">
@@ -13198,7 +13198,7 @@
         <f t="shared" si="3"/>
         <v>311</v>
       </c>
-      <c r="T13" s="48"/>
+      <c r="T13" s="51"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A14" s="17" t="s">
@@ -13262,7 +13262,7 @@
         <f t="shared" si="3"/>
         <v>312</v>
       </c>
-      <c r="T14" s="48"/>
+      <c r="T14" s="51"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A15" s="17" t="s">
@@ -13326,7 +13326,7 @@
         <f t="shared" si="3"/>
         <v>311</v>
       </c>
-      <c r="T15" s="48"/>
+      <c r="T15" s="51"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A16" s="17" t="s">
@@ -13390,7 +13390,7 @@
         <f t="shared" si="3"/>
         <v>312</v>
       </c>
-      <c r="T16" s="48"/>
+      <c r="T16" s="51"/>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A17" s="17" t="s">
@@ -13454,7 +13454,7 @@
         <f t="shared" si="3"/>
         <v>325</v>
       </c>
-      <c r="T17" s="48"/>
+      <c r="T17" s="51"/>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A18" s="17" t="s">
@@ -13518,7 +13518,7 @@
         <f t="shared" si="3"/>
         <v>324</v>
       </c>
-      <c r="T18" s="48"/>
+      <c r="T18" s="51"/>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A19" s="17" t="s">
@@ -20223,30 +20223,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="51" t="s">
         <v>190</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
-      <c r="N1" s="48"/>
-      <c r="O1" s="52" t="s">
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="51"/>
+      <c r="O1" s="55" t="s">
         <v>195</v>
       </c>
-      <c r="P1" s="53"/>
-      <c r="Q1" s="53"/>
-      <c r="R1" s="53"/>
-      <c r="S1" s="53"/>
-      <c r="T1" s="54"/>
+      <c r="P1" s="56"/>
+      <c r="Q1" s="56"/>
+      <c r="R1" s="56"/>
+      <c r="S1" s="56"/>
+      <c r="T1" s="57"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A2" s="17" t="s">
@@ -20259,7 +20259,7 @@
         <v>183</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E2" s="17" t="s">
         <v>184</v>
@@ -20268,7 +20268,7 @@
         <v>185</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H2" s="17" t="s">
         <v>186</v>
@@ -20280,13 +20280,13 @@
         <v>188</v>
       </c>
       <c r="K2" s="17" t="s">
+        <v>260</v>
+      </c>
+      <c r="L2" s="17" t="s">
         <v>261</v>
       </c>
-      <c r="L2" s="17" t="s">
+      <c r="M2" s="17" t="s">
         <v>262</v>
-      </c>
-      <c r="M2" s="17" t="s">
-        <v>263</v>
       </c>
       <c r="N2" s="17" t="s">
         <v>189</v>
@@ -20310,13 +20310,13 @@
         <v>222</v>
       </c>
       <c r="U2" s="27" t="s">
+        <v>264</v>
+      </c>
+      <c r="V2" s="27" t="s">
         <v>265</v>
       </c>
-      <c r="V2" s="27" t="s">
+      <c r="W2" s="17" t="s">
         <v>266</v>
-      </c>
-      <c r="W2" s="17" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.35">
@@ -28328,12 +28328,12 @@
       </c>
     </row>
     <row r="107" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="K107" s="55" t="s">
-        <v>271</v>
-      </c>
-      <c r="L107" s="55"/>
-      <c r="M107" s="55"/>
-      <c r="N107" s="56"/>
+      <c r="K107" s="58" t="s">
+        <v>270</v>
+      </c>
+      <c r="L107" s="58"/>
+      <c r="M107" s="58"/>
+      <c r="N107" s="59"/>
       <c r="O107" s="30" t="str">
         <f>_xlfn.CONCAT(A3,"_N2")</f>
         <v>A1_N2</v>
@@ -30650,24 +30650,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="57" t="s">
-        <v>573</v>
-      </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
+      <c r="A1" s="60" t="s">
+        <v>572</v>
+      </c>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="36" t="s">
+        <v>267</v>
+      </c>
+      <c r="B2" s="36" t="s">
         <v>268</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="C2" s="36" t="s">
         <v>269</v>
-      </c>
-      <c r="C2" s="36" t="s">
-        <v>270</v>
       </c>
       <c r="D2" s="36" t="s">
         <v>222</v>
@@ -30855,7 +30855,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="37" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B12" s="35">
         <f t="shared" ref="B12:C12" si="1">SUM(B3:B11)</f>
@@ -30884,24 +30884,24 @@
       <c r="A15" s="37"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" s="58" t="s">
-        <v>561</v>
-      </c>
-      <c r="B16" s="58"/>
-      <c r="C16" s="58"/>
-      <c r="D16" s="58"/>
-      <c r="E16" s="58"/>
-      <c r="F16" s="58"/>
+      <c r="A16" s="61" t="s">
+        <v>560</v>
+      </c>
+      <c r="B16" s="61"/>
+      <c r="C16" s="61"/>
+      <c r="D16" s="61"/>
+      <c r="E16" s="61"/>
+      <c r="F16" s="61"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="36" t="s">
+        <v>267</v>
+      </c>
+      <c r="B17" s="36" t="s">
         <v>268</v>
       </c>
-      <c r="B17" s="36" t="s">
+      <c r="C17" s="36" t="s">
         <v>269</v>
-      </c>
-      <c r="C17" s="36" t="s">
-        <v>270</v>
       </c>
       <c r="D17" s="36" t="s">
         <v>222</v>
@@ -31133,7 +31133,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="36" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B29" s="36">
         <f>SUM(B18:B28)</f>
@@ -31185,67 +31185,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A1" s="45" t="s">
-        <v>561</v>
-      </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
+      <c r="A1" s="48" t="s">
+        <v>560</v>
+      </c>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B2" t="s">
         <v>246</v>
       </c>
       <c r="C2" t="s">
+        <v>562</v>
+      </c>
+      <c r="D2" t="s">
         <v>563</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>564</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>565</v>
       </c>
-      <c r="F2" t="s">
-        <v>566</v>
-      </c>
       <c r="G2" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H2" t="s">
         <v>222</v>
       </c>
       <c r="J2" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="K2" t="s">
+        <v>567</v>
+      </c>
+      <c r="L2" t="s">
+        <v>569</v>
+      </c>
+      <c r="M2" t="s">
         <v>568</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
         <v>570</v>
-      </c>
-      <c r="M2" t="s">
-        <v>569</v>
-      </c>
-      <c r="N2" t="s">
-        <v>571</v>
       </c>
       <c r="O2" t="s">
         <v>222</v>
       </c>
       <c r="P2" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B3" s="39">
         <v>0</v>
@@ -31302,7 +31302,7 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B4" s="39">
         <v>0</v>
@@ -31359,7 +31359,7 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B5" s="39">
         <v>76</v>
@@ -31416,7 +31416,7 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B6" s="39">
         <v>76</v>
@@ -31473,7 +31473,7 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B7" s="39">
         <v>0</v>
@@ -31530,7 +31530,7 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B8" s="39">
         <v>0</v>
@@ -31587,7 +31587,7 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B9" s="39">
         <v>76</v>
@@ -31644,7 +31644,7 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B10" s="39">
         <v>76</v>
@@ -31701,7 +31701,7 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B11" s="39">
         <v>100</v>
@@ -31758,7 +31758,7 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B12" s="39">
         <v>100</v>
@@ -31786,7 +31786,7 @@
         <v>7564</v>
       </c>
       <c r="J12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="K12">
         <f>SUM(K3:K11)</f>
@@ -31815,7 +31815,7 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B13" s="39">
         <v>100</v>
@@ -31845,7 +31845,7 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B14" s="39">
         <v>197</v>
@@ -31875,7 +31875,7 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B15" s="39">
         <v>197</v>
@@ -31905,7 +31905,7 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B16" s="39">
         <v>197</v>
@@ -31935,7 +31935,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B17" s="39">
         <v>155</v>
@@ -31965,7 +31965,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B18" s="39">
         <v>0</v>
@@ -31995,7 +31995,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B19" s="39">
         <v>0</v>
@@ -32025,7 +32025,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B20" s="39">
         <v>0</v>
@@ -32055,7 +32055,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B21" s="39">
         <v>0</v>
@@ -32085,7 +32085,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B22" s="39">
         <v>0</v>
@@ -32115,7 +32115,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B23" s="39">
         <v>0</v>
@@ -32145,7 +32145,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B24" s="39">
         <v>0</v>
@@ -32175,7 +32175,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B25" s="39">
         <v>400</v>
@@ -32205,7 +32205,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B26" s="39">
         <v>50</v>
@@ -32235,7 +32235,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B27" s="39">
         <v>50</v>
@@ -32265,7 +32265,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B28" s="39">
         <v>50</v>
@@ -32295,7 +32295,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B29" s="39">
         <v>50</v>
@@ -32325,7 +32325,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B30" s="39">
         <v>50</v>
@@ -32355,7 +32355,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B31" s="39">
         <v>50</v>
@@ -32385,7 +32385,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B32" s="39">
         <v>155</v>
@@ -32415,7 +32415,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B33" s="39">
         <v>155</v>
@@ -32445,7 +32445,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B34" s="39">
         <v>350</v>
@@ -32475,7 +32475,7 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B35" s="39">
         <v>76</v>
@@ -32505,7 +32505,7 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B36" s="39">
         <v>76</v>
@@ -32535,7 +32535,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B37" s="39">
         <v>20</v>
@@ -32565,7 +32565,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B38" s="39">
         <v>20</v>
@@ -32595,7 +32595,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B39" s="39">
         <v>20</v>
@@ -32625,7 +32625,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B40" s="39">
         <v>20</v>
@@ -32655,7 +32655,7 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B41" s="39">
         <v>76</v>
@@ -32685,7 +32685,7 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B42" s="39">
         <v>76</v>
@@ -32715,7 +32715,7 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B43" s="39">
         <v>25</v>
@@ -32745,7 +32745,7 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B44" s="39">
         <v>100</v>
@@ -32775,7 +32775,7 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B45" s="39">
         <v>0</v>
@@ -32805,7 +32805,7 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B46" s="39">
         <v>197</v>
@@ -32835,7 +32835,7 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B47" s="39">
         <v>197</v>
@@ -32865,7 +32865,7 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B48" s="39">
         <v>197</v>
@@ -32895,7 +32895,7 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B49" s="39">
         <v>155</v>
@@ -32925,7 +32925,7 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B50" s="39">
         <v>0</v>
@@ -32955,7 +32955,7 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B51" s="39">
         <v>0</v>
@@ -32985,7 +32985,7 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B52" s="39">
         <v>0</v>
@@ -33015,7 +33015,7 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B53" s="39">
         <v>0</v>
@@ -33045,7 +33045,7 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B54" s="39">
         <v>0</v>
@@ -33075,7 +33075,7 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B55" s="39">
         <v>67.489999999999995</v>
@@ -33105,7 +33105,7 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B56" s="39">
         <v>194.27</v>
@@ -33135,7 +33135,7 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B57" s="39">
         <v>400</v>
@@ -33165,7 +33165,7 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B58" s="39">
         <v>50</v>
@@ -33195,7 +33195,7 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B59" s="39">
         <v>50</v>
@@ -33225,7 +33225,7 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B60" s="39">
         <v>50</v>
@@ -33255,7 +33255,7 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B61" s="39">
         <v>50</v>
@@ -33285,7 +33285,7 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B62" s="39">
         <v>50</v>
@@ -33315,7 +33315,7 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B63" s="39">
         <v>50</v>
@@ -33345,7 +33345,7 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B64" s="39">
         <v>155</v>
@@ -33375,7 +33375,7 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B65" s="39">
         <v>155</v>
@@ -33405,7 +33405,7 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B66" s="39">
         <v>350</v>
@@ -33435,7 +33435,7 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B67" s="39">
         <v>76</v>
@@ -33465,7 +33465,7 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B68" s="39">
         <v>76</v>
@@ -33495,7 +33495,7 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B69" s="39">
         <v>0</v>
@@ -33525,7 +33525,7 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B70" s="39">
         <v>0</v>
@@ -33555,7 +33555,7 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B71" s="39">
         <v>20</v>
@@ -33585,7 +33585,7 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B72" s="39">
         <v>20</v>
@@ -33615,7 +33615,7 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B73" s="39">
         <v>76</v>
@@ -33645,7 +33645,7 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B74" s="39">
         <v>76</v>
@@ -33675,7 +33675,7 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B75" s="39">
         <v>25</v>
@@ -33705,7 +33705,7 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B76" s="39">
         <v>100</v>
@@ -33735,7 +33735,7 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B77" s="39">
         <v>0</v>
@@ -33765,7 +33765,7 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B78" s="39">
         <v>197</v>
@@ -33795,7 +33795,7 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B79" s="39">
         <v>197</v>
@@ -33825,7 +33825,7 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B80" s="39">
         <v>197</v>
@@ -33855,7 +33855,7 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B81" s="39">
         <v>155</v>
@@ -33885,7 +33885,7 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B82" s="39">
         <v>0</v>
@@ -33915,7 +33915,7 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B83" s="39">
         <v>0</v>
@@ -33945,7 +33945,7 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B84" s="39">
         <v>0</v>
@@ -33975,7 +33975,7 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B85" s="39">
         <v>0</v>
@@ -34005,7 +34005,7 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B86" s="39">
         <v>0</v>
@@ -34035,7 +34035,7 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B87" s="39">
         <v>61.83</v>
@@ -34065,7 +34065,7 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B88" s="39">
         <v>262.89999999999998</v>
@@ -34095,7 +34095,7 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B89" s="39">
         <v>400</v>
@@ -34125,7 +34125,7 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B90" s="39">
         <v>50</v>
@@ -34155,7 +34155,7 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B91" s="39">
         <v>50</v>
@@ -34185,7 +34185,7 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B92" s="39">
         <v>50</v>
@@ -34215,7 +34215,7 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B93" s="39">
         <v>50</v>
@@ -34245,7 +34245,7 @@
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B94" s="39">
         <v>50</v>
@@ -34275,7 +34275,7 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B95" s="39">
         <v>50</v>
@@ -34305,7 +34305,7 @@
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B96" s="39">
         <v>155</v>
@@ -34335,7 +34335,7 @@
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B97" s="39">
         <v>155</v>
@@ -34365,7 +34365,7 @@
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B98" s="39">
         <v>350</v>
@@ -34395,7 +34395,7 @@
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B99" s="39">
         <v>0</v>
@@ -34425,7 +34425,7 @@
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B100" s="39">
         <v>0</v>
@@ -34455,7 +34455,7 @@
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B101" s="39">
         <v>76</v>
@@ -34485,7 +34485,7 @@
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B102" s="39">
         <v>76</v>
@@ -34515,7 +34515,7 @@
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B103" s="39">
         <v>0</v>
@@ -34545,7 +34545,7 @@
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B104" s="39">
         <v>0</v>
@@ -34575,7 +34575,7 @@
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B105" s="39">
         <v>76</v>
@@ -34605,7 +34605,7 @@
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B106" s="39">
         <v>76</v>
@@ -34635,7 +34635,7 @@
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B107" s="39">
         <v>37.44</v>
@@ -34665,7 +34665,7 @@
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B108" s="39">
         <v>0</v>
@@ -34695,7 +34695,7 @@
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B109" s="39">
         <v>100</v>
@@ -34725,7 +34725,7 @@
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B110" s="39">
         <v>197</v>
@@ -34755,7 +34755,7 @@
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B111" s="39">
         <v>197</v>
@@ -34785,7 +34785,7 @@
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B112" s="39">
         <v>197</v>
@@ -34815,7 +34815,7 @@
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B113" s="39">
         <v>155</v>
@@ -34845,7 +34845,7 @@
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B114" s="39">
         <v>0</v>
@@ -34875,7 +34875,7 @@
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B115" s="39">
         <v>0</v>
@@ -34905,7 +34905,7 @@
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B116" s="39">
         <v>0</v>
@@ -34935,7 +34935,7 @@
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B117" s="39">
         <v>0</v>
@@ -34965,7 +34965,7 @@
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B118" s="39">
         <v>0</v>
@@ -34995,7 +34995,7 @@
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B119" s="39">
         <v>59.34</v>
@@ -35025,7 +35025,7 @@
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B120" s="39">
         <v>248.67</v>
@@ -35055,7 +35055,7 @@
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B121" s="39">
         <v>400</v>
@@ -35085,7 +35085,7 @@
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B122" s="39">
         <v>50</v>
@@ -35115,7 +35115,7 @@
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B123" s="39">
         <v>50</v>
@@ -35145,7 +35145,7 @@
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B124" s="39">
         <v>50</v>
@@ -35175,7 +35175,7 @@
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B125" s="39">
         <v>50</v>
@@ -35205,7 +35205,7 @@
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B126" s="39">
         <v>50</v>
@@ -35235,7 +35235,7 @@
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B127" s="39">
         <v>50</v>
@@ -35265,7 +35265,7 @@
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B128" s="39">
         <v>155</v>
@@ -35295,7 +35295,7 @@
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B129" s="39">
         <v>155</v>
@@ -35325,7 +35325,7 @@
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B130" s="39">
         <v>119.96</v>
@@ -35355,7 +35355,7 @@
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B131" s="39">
         <v>76</v>
@@ -35385,7 +35385,7 @@
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B132" s="39">
         <v>76</v>
@@ -35415,7 +35415,7 @@
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B133" s="39">
         <v>20</v>
@@ -35445,7 +35445,7 @@
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B134" s="39">
         <v>20</v>
@@ -35475,7 +35475,7 @@
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B135" s="39">
         <v>20</v>
@@ -35505,7 +35505,7 @@
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B136" s="39">
         <v>20</v>
@@ -35535,7 +35535,7 @@
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B137" s="39">
         <v>76</v>
@@ -35565,7 +35565,7 @@
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B138" s="39">
         <v>76</v>
@@ -35595,7 +35595,7 @@
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B139" s="39">
         <v>100</v>
@@ -35625,7 +35625,7 @@
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B140" s="39">
         <v>100</v>
@@ -35655,7 +35655,7 @@
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B141" s="39">
         <v>100</v>
@@ -35685,7 +35685,7 @@
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B142" s="39">
         <v>197</v>
@@ -35715,7 +35715,7 @@
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B143" s="39">
         <v>197</v>
@@ -35745,7 +35745,7 @@
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B144" s="39">
         <v>197</v>
@@ -35775,7 +35775,7 @@
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B145" s="39">
         <v>155</v>
@@ -35805,7 +35805,7 @@
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B146" s="39">
         <v>0</v>
@@ -35835,7 +35835,7 @@
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B147" s="39">
         <v>0</v>
@@ -35865,7 +35865,7 @@
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B148" s="39">
         <v>0</v>
@@ -35895,7 +35895,7 @@
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B149" s="39">
         <v>0</v>
@@ -35925,7 +35925,7 @@
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B150" s="39">
         <v>0</v>
@@ -35955,7 +35955,7 @@
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B151" s="39">
         <v>155</v>
@@ -35985,7 +35985,7 @@
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B152" s="39">
         <v>400</v>
@@ -36015,7 +36015,7 @@
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B153" s="39">
         <v>400</v>
@@ -36045,7 +36045,7 @@
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B154" s="39">
         <v>50</v>
@@ -36075,7 +36075,7 @@
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B155" s="39">
         <v>50</v>
@@ -36105,7 +36105,7 @@
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B156" s="39">
         <v>50</v>
@@ -36135,7 +36135,7 @@
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B157" s="39">
         <v>50</v>
@@ -36165,7 +36165,7 @@
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B158" s="39">
         <v>50</v>
@@ -36195,7 +36195,7 @@
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B159" s="39">
         <v>50</v>
@@ -36225,7 +36225,7 @@
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B160" s="39">
         <v>155</v>
@@ -36255,7 +36255,7 @@
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B161" s="39">
         <v>155</v>
@@ -36285,7 +36285,7 @@
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B162" s="39">
         <v>350</v>
@@ -36315,7 +36315,7 @@
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B163" s="39">
         <v>76</v>
@@ -36345,7 +36345,7 @@
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B164" s="39">
         <v>76</v>
@@ -36375,7 +36375,7 @@
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B165" s="39">
         <v>0</v>
@@ -36405,7 +36405,7 @@
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B166" s="39">
         <v>20</v>
@@ -36435,7 +36435,7 @@
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B167" s="39">
         <v>20</v>
@@ -36465,7 +36465,7 @@
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B168" s="39">
         <v>20</v>
@@ -36495,7 +36495,7 @@
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B169" s="39">
         <v>76</v>
@@ -36525,7 +36525,7 @@
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B170" s="39">
         <v>76</v>
@@ -36555,7 +36555,7 @@
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B171" s="39">
         <v>100</v>
@@ -36585,7 +36585,7 @@
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B172" s="39">
         <v>100</v>
@@ -36615,7 +36615,7 @@
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B173" s="39">
         <v>100</v>
@@ -36645,7 +36645,7 @@
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B174" s="39">
         <v>197</v>
@@ -36675,7 +36675,7 @@
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B175" s="39">
         <v>197</v>
@@ -36705,7 +36705,7 @@
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B176" s="39">
         <v>197</v>
@@ -36735,7 +36735,7 @@
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B177" s="39">
         <v>155</v>
@@ -36765,7 +36765,7 @@
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B178" s="39">
         <v>0</v>
@@ -36795,7 +36795,7 @@
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B179" s="39">
         <v>0</v>
@@ -36825,7 +36825,7 @@
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B180" s="39">
         <v>0</v>
@@ -36855,7 +36855,7 @@
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B181" s="39">
         <v>0</v>
@@ -36885,7 +36885,7 @@
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B182" s="39">
         <v>0</v>
@@ -36915,7 +36915,7 @@
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B183" s="39">
         <v>0</v>
@@ -36945,7 +36945,7 @@
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B184" s="39">
         <v>0</v>
@@ -36975,7 +36975,7 @@
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B185" s="39">
         <v>400</v>
@@ -37005,7 +37005,7 @@
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B186" s="39">
         <v>50</v>
@@ -37035,7 +37035,7 @@
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B187" s="39">
         <v>50</v>
@@ -37065,7 +37065,7 @@
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B188" s="39">
         <v>50</v>
@@ -37095,7 +37095,7 @@
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B189" s="39">
         <v>50</v>
@@ -37125,7 +37125,7 @@
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B190" s="39">
         <v>50</v>
@@ -37155,7 +37155,7 @@
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B191" s="39">
         <v>50</v>
@@ -37185,7 +37185,7 @@
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B192" s="39">
         <v>155</v>
@@ -37215,7 +37215,7 @@
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B193" s="39">
         <v>155</v>
@@ -37245,7 +37245,7 @@
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B194" s="39">
         <v>350</v>
@@ -37275,7 +37275,7 @@
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B195" s="39">
         <v>0</v>
@@ -37305,7 +37305,7 @@
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B196" s="39">
         <v>0</v>
@@ -37335,7 +37335,7 @@
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B197" s="39">
         <v>76</v>
@@ -37365,7 +37365,7 @@
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B198" s="39">
         <v>76</v>
@@ -37395,7 +37395,7 @@
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B199" s="39">
         <v>0</v>
@@ -37425,7 +37425,7 @@
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B200" s="39">
         <v>0</v>
@@ -37455,7 +37455,7 @@
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B201" s="39">
         <v>76</v>
@@ -37485,7 +37485,7 @@
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B202" s="39">
         <v>76</v>
@@ -37515,7 +37515,7 @@
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B203" s="39">
         <v>0</v>
@@ -37545,7 +37545,7 @@
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B204" s="39">
         <v>100</v>
@@ -37575,7 +37575,7 @@
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B205" s="39">
         <v>100</v>
@@ -37605,7 +37605,7 @@
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B206" s="39">
         <v>197</v>
@@ -37635,7 +37635,7 @@
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B207" s="39">
         <v>183.35</v>
@@ -37665,7 +37665,7 @@
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B208" s="39">
         <v>197</v>
@@ -37695,7 +37695,7 @@
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B209" s="39">
         <v>155</v>
@@ -37725,7 +37725,7 @@
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B210" s="39">
         <v>0</v>
@@ -37755,7 +37755,7 @@
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B211" s="39">
         <v>0</v>
@@ -37785,7 +37785,7 @@
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B212" s="39">
         <v>0</v>
@@ -37815,7 +37815,7 @@
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B213" s="39">
         <v>0</v>
@@ -37845,7 +37845,7 @@
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B214" s="39">
         <v>0</v>
@@ -37875,7 +37875,7 @@
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B215" s="39">
         <v>155</v>
@@ -37905,7 +37905,7 @@
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B216" s="39">
         <v>0</v>
@@ -37935,7 +37935,7 @@
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B217" s="39">
         <v>400</v>
@@ -37965,7 +37965,7 @@
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B218" s="39">
         <v>50</v>
@@ -37995,7 +37995,7 @@
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B219" s="39">
         <v>50</v>
@@ -38025,7 +38025,7 @@
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B220" s="39">
         <v>50</v>
@@ -38055,7 +38055,7 @@
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B221" s="39">
         <v>50</v>
@@ -38085,7 +38085,7 @@
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B222" s="39">
         <v>50</v>
@@ -38115,7 +38115,7 @@
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B223" s="39">
         <v>50</v>
@@ -38145,7 +38145,7 @@
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B224" s="39">
         <v>155</v>
@@ -38175,7 +38175,7 @@
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B225" s="39">
         <v>155</v>
@@ -38205,7 +38205,7 @@
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B226" s="39">
         <v>350</v>
@@ -38235,7 +38235,7 @@
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B227" s="39">
         <v>76</v>
@@ -38265,7 +38265,7 @@
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B228" s="39">
         <v>76</v>
@@ -38295,7 +38295,7 @@
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B229" s="39">
         <v>20</v>
@@ -38325,7 +38325,7 @@
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B230" s="39">
         <v>20</v>
@@ -38355,7 +38355,7 @@
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B231" s="39">
         <v>20</v>
@@ -38385,7 +38385,7 @@
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B232" s="39">
         <v>20</v>
@@ -38415,7 +38415,7 @@
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B233" s="39">
         <v>76</v>
@@ -38445,7 +38445,7 @@
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B234" s="39">
         <v>76</v>
@@ -38475,7 +38475,7 @@
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B235" s="39">
         <v>100</v>
@@ -38505,7 +38505,7 @@
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B236" s="39">
         <v>100</v>
@@ -38535,7 +38535,7 @@
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B237" s="39">
         <v>100</v>
@@ -38565,7 +38565,7 @@
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B238" s="39">
         <v>197</v>
@@ -38595,7 +38595,7 @@
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B239" s="39">
         <v>197</v>
@@ -38625,7 +38625,7 @@
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B240" s="39">
         <v>197</v>
@@ -38655,7 +38655,7 @@
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B241" s="39">
         <v>155</v>
@@ -38685,7 +38685,7 @@
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B242" s="39">
         <v>0</v>
@@ -38715,7 +38715,7 @@
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B243" s="39">
         <v>0</v>
@@ -38745,7 +38745,7 @@
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B244" s="39">
         <v>0</v>
@@ -38775,7 +38775,7 @@
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B245" s="39">
         <v>0</v>
@@ -38805,7 +38805,7 @@
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B246" s="39">
         <v>0</v>
@@ -38835,7 +38835,7 @@
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B247" s="39">
         <v>155</v>
@@ -38865,7 +38865,7 @@
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B248" s="39">
         <v>0</v>
@@ -38895,7 +38895,7 @@
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B249" s="39">
         <v>246.48</v>
@@ -38925,7 +38925,7 @@
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B250" s="39">
         <v>50</v>
@@ -38955,7 +38955,7 @@
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B251" s="39">
         <v>50</v>
@@ -38985,7 +38985,7 @@
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B252" s="39">
         <v>50</v>
@@ -39015,7 +39015,7 @@
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B253" s="39">
         <v>50</v>
@@ -39045,7 +39045,7 @@
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B254" s="39">
         <v>50</v>
@@ -39075,7 +39075,7 @@
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B255" s="39">
         <v>50</v>
@@ -39105,7 +39105,7 @@
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B256" s="39">
         <v>155</v>
@@ -39135,7 +39135,7 @@
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B257" s="39">
         <v>155</v>
@@ -39165,7 +39165,7 @@
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B258" s="39">
         <v>296.58999999999997</v>
@@ -39195,7 +39195,7 @@
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B259" s="39">
         <v>76</v>
@@ -39225,7 +39225,7 @@
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B260" s="39">
         <v>76</v>
@@ -39255,7 +39255,7 @@
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B261" s="39">
         <v>20</v>
@@ -39285,7 +39285,7 @@
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B262" s="39">
         <v>8.69</v>
@@ -39315,7 +39315,7 @@
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B263" s="39">
         <v>20</v>
@@ -39345,7 +39345,7 @@
     </row>
     <row r="264" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B264" s="39">
         <v>20</v>
@@ -39375,7 +39375,7 @@
     </row>
     <row r="265" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B265" s="39">
         <v>76</v>
@@ -39405,7 +39405,7 @@
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B266" s="39">
         <v>76</v>
@@ -39435,7 +39435,7 @@
     </row>
     <row r="267" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B267" s="39">
         <v>100</v>
@@ -39465,7 +39465,7 @@
     </row>
     <row r="268" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B268" s="39">
         <v>100</v>
@@ -39495,7 +39495,7 @@
     </row>
     <row r="269" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B269" s="39">
         <v>100</v>
@@ -39525,7 +39525,7 @@
     </row>
     <row r="270" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B270" s="39">
         <v>197</v>
@@ -39555,7 +39555,7 @@
     </row>
     <row r="271" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B271" s="39">
         <v>197</v>
@@ -39585,7 +39585,7 @@
     </row>
     <row r="272" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B272" s="39">
         <v>197</v>
@@ -39615,7 +39615,7 @@
     </row>
     <row r="273" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B273" s="39">
         <v>155</v>
@@ -39645,7 +39645,7 @@
     </row>
     <row r="274" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B274" s="39">
         <v>0</v>
@@ -39675,7 +39675,7 @@
     </row>
     <row r="275" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B275" s="39">
         <v>0</v>
@@ -39705,7 +39705,7 @@
     </row>
     <row r="276" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B276" s="39">
         <v>0</v>
@@ -39735,7 +39735,7 @@
     </row>
     <row r="277" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B277" s="39">
         <v>0</v>
@@ -39765,7 +39765,7 @@
     </row>
     <row r="278" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B278" s="39">
         <v>0</v>
@@ -39795,7 +39795,7 @@
     </row>
     <row r="279" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B279" s="39">
         <v>155</v>
@@ -39825,7 +39825,7 @@
     </row>
     <row r="280" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B280" s="39">
         <v>0</v>
@@ -39855,7 +39855,7 @@
     </row>
     <row r="281" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B281" s="39">
         <v>400</v>
@@ -39885,7 +39885,7 @@
     </row>
     <row r="282" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B282" s="39">
         <v>50</v>
@@ -39915,7 +39915,7 @@
     </row>
     <row r="283" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B283" s="39">
         <v>50</v>
@@ -39945,7 +39945,7 @@
     </row>
     <row r="284" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B284" s="39">
         <v>50</v>
@@ -39975,7 +39975,7 @@
     </row>
     <row r="285" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B285" s="39">
         <v>50</v>
@@ -40005,7 +40005,7 @@
     </row>
     <row r="286" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B286" s="39">
         <v>50</v>
@@ -40035,7 +40035,7 @@
     </row>
     <row r="287" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B287" s="39">
         <v>50</v>
@@ -40065,7 +40065,7 @@
     </row>
     <row r="288" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B288" s="39">
         <v>155</v>
@@ -40095,7 +40095,7 @@
     </row>
     <row r="289" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B289" s="39">
         <v>155</v>
@@ -40125,7 +40125,7 @@
     </row>
     <row r="290" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B290" s="39">
         <v>350</v>
@@ -40168,7 +40168,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6C7418B-F6CE-4D58-97A7-BDAF94623687}">
   <dimension ref="A1:P290"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
@@ -40187,67 +40187,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A1" s="45" t="s">
-        <v>573</v>
-      </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
+      <c r="A1" s="48" t="s">
+        <v>572</v>
+      </c>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B2" t="s">
         <v>246</v>
       </c>
       <c r="C2" t="s">
+        <v>562</v>
+      </c>
+      <c r="D2" t="s">
         <v>563</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>564</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>565</v>
       </c>
-      <c r="F2" t="s">
-        <v>566</v>
-      </c>
       <c r="G2" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H2" t="s">
         <v>222</v>
       </c>
       <c r="J2" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="K2" t="s">
+        <v>567</v>
+      </c>
+      <c r="L2" t="s">
+        <v>569</v>
+      </c>
+      <c r="M2" t="s">
         <v>568</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
         <v>570</v>
-      </c>
-      <c r="M2" t="s">
-        <v>569</v>
-      </c>
-      <c r="N2" t="s">
-        <v>571</v>
       </c>
       <c r="O2" t="s">
         <v>222</v>
       </c>
       <c r="P2" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B3" s="39">
         <v>0</v>
@@ -40304,7 +40304,7 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B4" s="39">
         <v>0</v>
@@ -40361,7 +40361,7 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B5" s="39">
         <v>76</v>
@@ -40418,7 +40418,7 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B6" s="39">
         <v>76</v>
@@ -40475,7 +40475,7 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B7" s="39">
         <v>0</v>
@@ -40532,7 +40532,7 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B8" s="39">
         <v>0</v>
@@ -40589,7 +40589,7 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B9" s="39">
         <v>76</v>
@@ -40646,7 +40646,7 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B10" s="39">
         <v>76</v>
@@ -40703,7 +40703,7 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B11" s="39">
         <v>100</v>
@@ -40760,7 +40760,7 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B12" s="39">
         <v>100</v>
@@ -40788,7 +40788,7 @@
         <v>7564</v>
       </c>
       <c r="J12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="K12">
         <f>SUM(K3:K11)</f>
@@ -40817,7 +40817,7 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B13" s="39">
         <v>0</v>
@@ -40847,7 +40847,7 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B14" s="39">
         <v>106.44</v>
@@ -40877,7 +40877,7 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B15" s="39">
         <v>197</v>
@@ -40907,7 +40907,7 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B16" s="39">
         <v>197</v>
@@ -40937,7 +40937,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B17" s="39">
         <v>155</v>
@@ -40967,7 +40967,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B18" s="39">
         <v>0</v>
@@ -40997,7 +40997,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B19" s="39">
         <v>0</v>
@@ -41027,7 +41027,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B20" s="39">
         <v>0</v>
@@ -41057,7 +41057,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B21" s="39">
         <v>0</v>
@@ -41087,7 +41087,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B22" s="39">
         <v>0</v>
@@ -41117,7 +41117,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B23" s="39">
         <v>0</v>
@@ -41147,7 +41147,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B24" s="39">
         <v>0</v>
@@ -41177,7 +41177,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B25" s="39">
         <v>400</v>
@@ -41207,7 +41207,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B26" s="39">
         <v>50</v>
@@ -41237,7 +41237,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B27" s="39">
         <v>50</v>
@@ -41267,7 +41267,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B28" s="39">
         <v>50</v>
@@ -41297,7 +41297,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B29" s="39">
         <v>50</v>
@@ -41327,7 +41327,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B30" s="39">
         <v>50</v>
@@ -41357,7 +41357,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B31" s="39">
         <v>50</v>
@@ -41387,7 +41387,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B32" s="39">
         <v>155</v>
@@ -41417,7 +41417,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B33" s="39">
         <v>155</v>
@@ -41447,7 +41447,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B34" s="39">
         <v>22.28</v>
@@ -41477,7 +41477,7 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B35" s="39">
         <v>76</v>
@@ -41507,7 +41507,7 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B36" s="39">
         <v>76</v>
@@ -41537,7 +41537,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B37" s="39">
         <v>0</v>
@@ -41567,7 +41567,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B38" s="39">
         <v>0</v>
@@ -41597,7 +41597,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B39" s="39">
         <v>0.66</v>
@@ -41627,7 +41627,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B40" s="39">
         <v>20</v>
@@ -41657,7 +41657,7 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B41" s="39">
         <v>76</v>
@@ -41687,7 +41687,7 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B42" s="39">
         <v>76</v>
@@ -41717,7 +41717,7 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B43" s="39">
         <v>100</v>
@@ -41747,7 +41747,7 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B44" s="39">
         <v>100</v>
@@ -41777,7 +41777,7 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B45" s="39">
         <v>100</v>
@@ -41807,7 +41807,7 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B46" s="39">
         <v>197</v>
@@ -41837,7 +41837,7 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B47" s="39">
         <v>197</v>
@@ -41867,7 +41867,7 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B48" s="39">
         <v>197</v>
@@ -41897,7 +41897,7 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B49" s="39">
         <v>155</v>
@@ -41927,7 +41927,7 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B50" s="39">
         <v>0</v>
@@ -41957,7 +41957,7 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B51" s="39">
         <v>0</v>
@@ -41987,7 +41987,7 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B52" s="39">
         <v>0</v>
@@ -42017,7 +42017,7 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B53" s="39">
         <v>0</v>
@@ -42047,7 +42047,7 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B54" s="39">
         <v>0</v>
@@ -42077,7 +42077,7 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B55" s="39">
         <v>155</v>
@@ -42107,7 +42107,7 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B56" s="39">
         <v>400</v>
@@ -42137,7 +42137,7 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B57" s="39">
         <v>9.86</v>
@@ -42167,7 +42167,7 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B58" s="39">
         <v>50</v>
@@ -42197,7 +42197,7 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B59" s="39">
         <v>50</v>
@@ -42227,7 +42227,7 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B60" s="39">
         <v>50</v>
@@ -42257,7 +42257,7 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B61" s="39">
         <v>50</v>
@@ -42287,7 +42287,7 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B62" s="39">
         <v>50</v>
@@ -42317,7 +42317,7 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B63" s="39">
         <v>50</v>
@@ -42347,7 +42347,7 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B64" s="39">
         <v>155</v>
@@ -42377,7 +42377,7 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B65" s="39">
         <v>155</v>
@@ -42407,7 +42407,7 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B66" s="39">
         <v>350</v>
@@ -42437,7 +42437,7 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B67" s="39">
         <v>76</v>
@@ -42467,7 +42467,7 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B68" s="39">
         <v>76</v>
@@ -42497,7 +42497,7 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B69" s="39">
         <v>0</v>
@@ -42527,7 +42527,7 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B70" s="39">
         <v>1.1299999999999999</v>
@@ -42557,7 +42557,7 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B71" s="39">
         <v>20</v>
@@ -42587,7 +42587,7 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B72" s="39">
         <v>20</v>
@@ -42617,7 +42617,7 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B73" s="39">
         <v>76</v>
@@ -42647,7 +42647,7 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B74" s="39">
         <v>76</v>
@@ -42677,7 +42677,7 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B75" s="39">
         <v>100</v>
@@ -42707,7 +42707,7 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B76" s="39">
         <v>100</v>
@@ -42737,7 +42737,7 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B77" s="39">
         <v>100</v>
@@ -42767,7 +42767,7 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B78" s="39">
         <v>197</v>
@@ -42797,7 +42797,7 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B79" s="39">
         <v>197</v>
@@ -42827,7 +42827,7 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B80" s="39">
         <v>121.3</v>
@@ -42857,7 +42857,7 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B81" s="39">
         <v>155</v>
@@ -42887,7 +42887,7 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B82" s="39">
         <v>0</v>
@@ -42917,7 +42917,7 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B83" s="39">
         <v>0</v>
@@ -42947,7 +42947,7 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B84" s="39">
         <v>12</v>
@@ -42977,7 +42977,7 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B85" s="39">
         <v>0</v>
@@ -43007,7 +43007,7 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B86" s="39">
         <v>0</v>
@@ -43037,7 +43037,7 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B87" s="39">
         <v>155</v>
@@ -43067,7 +43067,7 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B88" s="39">
         <v>0</v>
@@ -43097,7 +43097,7 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B89" s="39">
         <v>400</v>
@@ -43127,7 +43127,7 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B90" s="39">
         <v>50</v>
@@ -43157,7 +43157,7 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B91" s="39">
         <v>50</v>
@@ -43187,7 +43187,7 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B92" s="39">
         <v>50</v>
@@ -43217,7 +43217,7 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B93" s="39">
         <v>50</v>
@@ -43247,7 +43247,7 @@
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B94" s="39">
         <v>50</v>
@@ -43277,7 +43277,7 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B95" s="39">
         <v>50</v>
@@ -43307,7 +43307,7 @@
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B96" s="39">
         <v>155</v>
@@ -43337,7 +43337,7 @@
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B97" s="39">
         <v>155</v>
@@ -43367,7 +43367,7 @@
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B98" s="39">
         <v>350</v>
@@ -43397,7 +43397,7 @@
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B99" s="39">
         <v>0</v>
@@ -43427,7 +43427,7 @@
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B100" s="39">
         <v>0</v>
@@ -43457,7 +43457,7 @@
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B101" s="39">
         <v>76</v>
@@ -43487,7 +43487,7 @@
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B102" s="39">
         <v>76</v>
@@ -43517,7 +43517,7 @@
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B103" s="39">
         <v>0</v>
@@ -43547,7 +43547,7 @@
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B104" s="39">
         <v>0</v>
@@ -43577,7 +43577,7 @@
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B105" s="39">
         <v>76</v>
@@ -43607,7 +43607,7 @@
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B106" s="39">
         <v>76</v>
@@ -43637,7 +43637,7 @@
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B107" s="39">
         <v>100</v>
@@ -43667,7 +43667,7 @@
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B108" s="39">
         <v>100</v>
@@ -43697,7 +43697,7 @@
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B109" s="39">
         <v>100</v>
@@ -43727,7 +43727,7 @@
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B110" s="39">
         <v>197</v>
@@ -43757,7 +43757,7 @@
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B111" s="39">
         <v>197</v>
@@ -43787,7 +43787,7 @@
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B112" s="39">
         <v>197</v>
@@ -43817,7 +43817,7 @@
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B113" s="39">
         <v>155</v>
@@ -43847,7 +43847,7 @@
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B114" s="39">
         <v>0</v>
@@ -43877,7 +43877,7 @@
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B115" s="39">
         <v>0</v>
@@ -43907,7 +43907,7 @@
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B116" s="39">
         <v>0</v>
@@ -43937,7 +43937,7 @@
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B117" s="39">
         <v>0</v>
@@ -43967,7 +43967,7 @@
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B118" s="39">
         <v>0</v>
@@ -43997,7 +43997,7 @@
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B119" s="39">
         <v>155</v>
@@ -44027,7 +44027,7 @@
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B120" s="39">
         <v>0</v>
@@ -44057,7 +44057,7 @@
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B121" s="39">
         <v>400</v>
@@ -44087,7 +44087,7 @@
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B122" s="39">
         <v>50</v>
@@ -44117,7 +44117,7 @@
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B123" s="39">
         <v>50</v>
@@ -44147,7 +44147,7 @@
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B124" s="39">
         <v>50</v>
@@ -44177,7 +44177,7 @@
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B125" s="39">
         <v>50</v>
@@ -44207,7 +44207,7 @@
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B126" s="39">
         <v>50</v>
@@ -44237,7 +44237,7 @@
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B127" s="39">
         <v>50</v>
@@ -44267,7 +44267,7 @@
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B128" s="39">
         <v>155</v>
@@ -44297,7 +44297,7 @@
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B129" s="39">
         <v>155</v>
@@ -44327,7 +44327,7 @@
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B130" s="39">
         <v>350</v>
@@ -44357,7 +44357,7 @@
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B131" s="39">
         <v>76</v>
@@ -44387,7 +44387,7 @@
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B132" s="39">
         <v>76</v>
@@ -44417,7 +44417,7 @@
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B133" s="39">
         <v>0</v>
@@ -44447,7 +44447,7 @@
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B134" s="39">
         <v>0</v>
@@ -44477,7 +44477,7 @@
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B135" s="39">
         <v>20</v>
@@ -44507,7 +44507,7 @@
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B136" s="39">
         <v>0</v>
@@ -44537,7 +44537,7 @@
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B137" s="39">
         <v>76</v>
@@ -44567,7 +44567,7 @@
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B138" s="39">
         <v>76</v>
@@ -44597,7 +44597,7 @@
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B139" s="39">
         <v>100</v>
@@ -44627,7 +44627,7 @@
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B140" s="39">
         <v>100</v>
@@ -44657,7 +44657,7 @@
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B141" s="39">
         <v>100</v>
@@ -44687,7 +44687,7 @@
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B142" s="39">
         <v>197</v>
@@ -44717,7 +44717,7 @@
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B143" s="39">
         <v>197</v>
@@ -44747,7 +44747,7 @@
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B144" s="39">
         <v>197</v>
@@ -44777,7 +44777,7 @@
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B145" s="39">
         <v>155</v>
@@ -44807,7 +44807,7 @@
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B146" s="39">
         <v>0</v>
@@ -44837,7 +44837,7 @@
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B147" s="39">
         <v>0</v>
@@ -44867,7 +44867,7 @@
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B148" s="39">
         <v>0</v>
@@ -44897,7 +44897,7 @@
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B149" s="39">
         <v>0</v>
@@ -44927,7 +44927,7 @@
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B150" s="39">
         <v>0</v>
@@ -44957,7 +44957,7 @@
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B151" s="39">
         <v>155</v>
@@ -44987,7 +44987,7 @@
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B152" s="39">
         <v>133.84</v>
@@ -45017,7 +45017,7 @@
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B153" s="39">
         <v>400</v>
@@ -45047,7 +45047,7 @@
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B154" s="39">
         <v>50</v>
@@ -45077,7 +45077,7 @@
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B155" s="39">
         <v>50</v>
@@ -45107,7 +45107,7 @@
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B156" s="39">
         <v>50</v>
@@ -45137,7 +45137,7 @@
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B157" s="39">
         <v>50</v>
@@ -45167,7 +45167,7 @@
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B158" s="39">
         <v>50</v>
@@ -45197,7 +45197,7 @@
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B159" s="39">
         <v>50</v>
@@ -45227,7 +45227,7 @@
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B160" s="39">
         <v>155</v>
@@ -45257,7 +45257,7 @@
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B161" s="39">
         <v>155</v>
@@ -45287,7 +45287,7 @@
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B162" s="39">
         <v>350</v>
@@ -45317,7 +45317,7 @@
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B163" s="39">
         <v>76</v>
@@ -45347,7 +45347,7 @@
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B164" s="39">
         <v>76</v>
@@ -45377,7 +45377,7 @@
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B165" s="39">
         <v>0</v>
@@ -45407,7 +45407,7 @@
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B166" s="39">
         <v>0</v>
@@ -45437,7 +45437,7 @@
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B167" s="39">
         <v>20</v>
@@ -45467,7 +45467,7 @@
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B168" s="39">
         <v>20</v>
@@ -45497,7 +45497,7 @@
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B169" s="39">
         <v>76</v>
@@ -45527,7 +45527,7 @@
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B170" s="39">
         <v>76</v>
@@ -45557,7 +45557,7 @@
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B171" s="39">
         <v>100</v>
@@ -45587,7 +45587,7 @@
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B172" s="39">
         <v>100</v>
@@ -45617,7 +45617,7 @@
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B173" s="39">
         <v>100</v>
@@ -45647,7 +45647,7 @@
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B174" s="39">
         <v>197</v>
@@ -45677,7 +45677,7 @@
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B175" s="39">
         <v>197</v>
@@ -45707,7 +45707,7 @@
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B176" s="39">
         <v>197</v>
@@ -45737,7 +45737,7 @@
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B177" s="39">
         <v>155</v>
@@ -45767,7 +45767,7 @@
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B178" s="39">
         <v>12</v>
@@ -45797,7 +45797,7 @@
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B179" s="39">
         <v>12</v>
@@ -45827,7 +45827,7 @@
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B180" s="39">
         <v>12</v>
@@ -45857,7 +45857,7 @@
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B181" s="39">
         <v>12</v>
@@ -45887,7 +45887,7 @@
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B182" s="39">
         <v>12</v>
@@ -45917,7 +45917,7 @@
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B183" s="39">
         <v>155</v>
@@ -45947,7 +45947,7 @@
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B184" s="39">
         <v>192.17</v>
@@ -45977,7 +45977,7 @@
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B185" s="39">
         <v>400</v>
@@ -46007,7 +46007,7 @@
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B186" s="39">
         <v>50</v>
@@ -46037,7 +46037,7 @@
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B187" s="39">
         <v>50</v>
@@ -46067,7 +46067,7 @@
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B188" s="39">
         <v>50</v>
@@ -46097,7 +46097,7 @@
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B189" s="39">
         <v>50</v>
@@ -46127,7 +46127,7 @@
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B190" s="39">
         <v>50</v>
@@ -46157,7 +46157,7 @@
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B191" s="39">
         <v>50</v>
@@ -46187,7 +46187,7 @@
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B192" s="39">
         <v>155</v>
@@ -46217,7 +46217,7 @@
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B193" s="39">
         <v>155</v>
@@ -46247,7 +46247,7 @@
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B194" s="39">
         <v>350</v>
@@ -46277,7 +46277,7 @@
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B195" s="39">
         <v>0</v>
@@ -46307,7 +46307,7 @@
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B196" s="39">
         <v>0</v>
@@ -46337,7 +46337,7 @@
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B197" s="39">
         <v>76</v>
@@ -46367,7 +46367,7 @@
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B198" s="39">
         <v>76</v>
@@ -46397,7 +46397,7 @@
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B199" s="39">
         <v>0</v>
@@ -46427,7 +46427,7 @@
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B200" s="39">
         <v>0</v>
@@ -46457,7 +46457,7 @@
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B201" s="39">
         <v>76</v>
@@ -46487,7 +46487,7 @@
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B202" s="39">
         <v>76</v>
@@ -46517,7 +46517,7 @@
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B203" s="39">
         <v>100</v>
@@ -46547,7 +46547,7 @@
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B204" s="39">
         <v>10.94</v>
@@ -46577,7 +46577,7 @@
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B205" s="39">
         <v>0</v>
@@ -46607,7 +46607,7 @@
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B206" s="39">
         <v>197</v>
@@ -46637,7 +46637,7 @@
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B207" s="39">
         <v>197</v>
@@ -46667,7 +46667,7 @@
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B208" s="39">
         <v>197</v>
@@ -46697,7 +46697,7 @@
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B209" s="39">
         <v>155</v>
@@ -46727,7 +46727,7 @@
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B210" s="39">
         <v>0</v>
@@ -46757,7 +46757,7 @@
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B211" s="39">
         <v>0</v>
@@ -46787,7 +46787,7 @@
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B212" s="39">
         <v>0</v>
@@ -46817,7 +46817,7 @@
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B213" s="39">
         <v>0</v>
@@ -46847,7 +46847,7 @@
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B214" s="39">
         <v>0</v>
@@ -46877,7 +46877,7 @@
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B215" s="39">
         <v>56.45</v>
@@ -46907,7 +46907,7 @@
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B216" s="39">
         <v>237.65</v>
@@ -46937,7 +46937,7 @@
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B217" s="39">
         <v>397.38</v>
@@ -46967,7 +46967,7 @@
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B218" s="39">
         <v>50</v>
@@ -46997,7 +46997,7 @@
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B219" s="39">
         <v>50</v>
@@ -47027,7 +47027,7 @@
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B220" s="39">
         <v>50</v>
@@ -47057,7 +47057,7 @@
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B221" s="39">
         <v>50</v>
@@ -47087,7 +47087,7 @@
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B222" s="39">
         <v>50</v>
@@ -47117,7 +47117,7 @@
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B223" s="39">
         <v>50</v>
@@ -47147,7 +47147,7 @@
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B224" s="39">
         <v>155</v>
@@ -47177,7 +47177,7 @@
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B225" s="39">
         <v>155</v>
@@ -47207,7 +47207,7 @@
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B226" s="39">
         <v>350</v>
@@ -47237,7 +47237,7 @@
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B227" s="39">
         <v>76</v>
@@ -47267,7 +47267,7 @@
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B228" s="39">
         <v>76</v>
@@ -47297,7 +47297,7 @@
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B229" s="39">
         <v>0</v>
@@ -47327,7 +47327,7 @@
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B230" s="39">
         <v>0</v>
@@ -47357,7 +47357,7 @@
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B231" s="39">
         <v>20</v>
@@ -47387,7 +47387,7 @@
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B232" s="39">
         <v>20</v>
@@ -47417,7 +47417,7 @@
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B233" s="39">
         <v>76</v>
@@ -47447,7 +47447,7 @@
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B234" s="39">
         <v>76</v>
@@ -47477,7 +47477,7 @@
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B235" s="39">
         <v>100</v>
@@ -47507,7 +47507,7 @@
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B236" s="39">
         <v>100</v>
@@ -47537,7 +47537,7 @@
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B237" s="39">
         <v>100</v>
@@ -47567,7 +47567,7 @@
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B238" s="39">
         <v>197</v>
@@ -47597,7 +47597,7 @@
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B239" s="39">
         <v>197</v>
@@ -47627,7 +47627,7 @@
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B240" s="39">
         <v>197</v>
@@ -47657,7 +47657,7 @@
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B241" s="39">
         <v>155</v>
@@ -47687,7 +47687,7 @@
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B242" s="39">
         <v>0</v>
@@ -47717,7 +47717,7 @@
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B243" s="39">
         <v>0</v>
@@ -47747,7 +47747,7 @@
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B244" s="39">
         <v>0</v>
@@ -47777,7 +47777,7 @@
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B245" s="39">
         <v>0</v>
@@ -47807,7 +47807,7 @@
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B246" s="39">
         <v>0</v>
@@ -47837,7 +47837,7 @@
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B247" s="39">
         <v>155</v>
@@ -47867,7 +47867,7 @@
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B248" s="39">
         <v>400</v>
@@ -47897,7 +47897,7 @@
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B249" s="39">
         <v>400</v>
@@ -47927,7 +47927,7 @@
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B250" s="39">
         <v>50</v>
@@ -47957,7 +47957,7 @@
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B251" s="39">
         <v>50</v>
@@ -47987,7 +47987,7 @@
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B252" s="39">
         <v>50</v>
@@ -48017,7 +48017,7 @@
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B253" s="39">
         <v>50</v>
@@ -48047,7 +48047,7 @@
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B254" s="39">
         <v>44.8</v>
@@ -48077,7 +48077,7 @@
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B255" s="39">
         <v>50</v>
@@ -48107,7 +48107,7 @@
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B256" s="39">
         <v>155</v>
@@ -48137,7 +48137,7 @@
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B257" s="39">
         <v>155</v>
@@ -48167,7 +48167,7 @@
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B258" s="39">
         <v>327.37</v>
@@ -48197,7 +48197,7 @@
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B259" s="39">
         <v>76</v>
@@ -48227,7 +48227,7 @@
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B260" s="39">
         <v>76</v>
@@ -48257,7 +48257,7 @@
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B261" s="39">
         <v>20</v>
@@ -48287,7 +48287,7 @@
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B262" s="39">
         <v>0</v>
@@ -48317,7 +48317,7 @@
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B263" s="39">
         <v>20</v>
@@ -48347,7 +48347,7 @@
     </row>
     <row r="264" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B264" s="39">
         <v>20</v>
@@ -48377,7 +48377,7 @@
     </row>
     <row r="265" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B265" s="39">
         <v>76</v>
@@ -48407,7 +48407,7 @@
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B266" s="39">
         <v>76</v>
@@ -48437,7 +48437,7 @@
     </row>
     <row r="267" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B267" s="39">
         <v>100</v>
@@ -48467,7 +48467,7 @@
     </row>
     <row r="268" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B268" s="39">
         <v>100</v>
@@ -48497,7 +48497,7 @@
     </row>
     <row r="269" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B269" s="39">
         <v>100</v>
@@ -48527,7 +48527,7 @@
     </row>
     <row r="270" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B270" s="39">
         <v>197</v>
@@ -48557,7 +48557,7 @@
     </row>
     <row r="271" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B271" s="39">
         <v>0</v>
@@ -48587,7 +48587,7 @@
     </row>
     <row r="272" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B272" s="39">
         <v>0</v>
@@ -48617,7 +48617,7 @@
     </row>
     <row r="273" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B273" s="39">
         <v>155</v>
@@ -48647,7 +48647,7 @@
     </row>
     <row r="274" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B274" s="39">
         <v>12</v>
@@ -48677,7 +48677,7 @@
     </row>
     <row r="275" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B275" s="39">
         <v>10.74</v>
@@ -48707,7 +48707,7 @@
     </row>
     <row r="276" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B276" s="39">
         <v>12</v>
@@ -48737,7 +48737,7 @@
     </row>
     <row r="277" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B277" s="39">
         <v>12</v>
@@ -48767,7 +48767,7 @@
     </row>
     <row r="278" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B278" s="39">
         <v>12</v>
@@ -48797,7 +48797,7 @@
     </row>
     <row r="279" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B279" s="39">
         <v>155</v>
@@ -48827,7 +48827,7 @@
     </row>
     <row r="280" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B280" s="39">
         <v>0</v>
@@ -48857,7 +48857,7 @@
     </row>
     <row r="281" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B281" s="39">
         <v>400</v>
@@ -48887,7 +48887,7 @@
     </row>
     <row r="282" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B282" s="39">
         <v>50</v>
@@ -48917,7 +48917,7 @@
     </row>
     <row r="283" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B283" s="39">
         <v>50</v>
@@ -48947,7 +48947,7 @@
     </row>
     <row r="284" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B284" s="39">
         <v>50</v>
@@ -48977,7 +48977,7 @@
     </row>
     <row r="285" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B285" s="39">
         <v>50</v>
@@ -49007,7 +49007,7 @@
     </row>
     <row r="286" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B286" s="39">
         <v>50</v>
@@ -49037,7 +49037,7 @@
     </row>
     <row r="287" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B287" s="39">
         <v>50</v>
@@ -49067,7 +49067,7 @@
     </row>
     <row r="288" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B288" s="39">
         <v>155</v>
@@ -49097,7 +49097,7 @@
     </row>
     <row r="289" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B289" s="39">
         <v>155</v>
@@ -49127,7 +49127,7 @@
     </row>
     <row r="290" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B290" s="39">
         <v>350</v>
